--- a/biology/Zoologie/Coque_(animal)/Coque_(animal).xlsx
+++ b/biology/Zoologie/Coque_(animal)/Coque_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coque est un nom vernaculaire ambigu désignant en français certains bivalves autrefois appelés Bucardes. En France ce nom désigne généralement la « Coque commune » ou « Coque blanche » (Cerastoderma edule), mais d'autres espèces portent aussi ce nom. La FAO conserve le nom de bucarde à l'exception des genres Cerastoderma (coques), Hypanis et Monodacna (coques-de-lagune) et, occasionnellement, Laevicardium (coques lisses).
 </t>
@@ -511,14 +523,16 @@
           <t>Liste des espèces appelées « coque »</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Note : Noms attestés en français. Certains noms peuvent être en double[1].
-Coque - Le plus souvent Cerastoderma edule mais aussi Austrovenus stutchburyi[2]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Note : Noms attestés en français. Certains noms peuvent être en double.
+Coque - Le plus souvent Cerastoderma edule mais aussi Austrovenus stutchburyi
 Coque blanche - voir Coque commune
-Coque comestible - voir Coque commune[3]
+Coque comestible - voir Coque commune
 Coque commune - Cerastoderma edule
-Coque rouge - Cardium echinatum[3]
+Coque rouge - Cardium echinatum
 Coque épineuse - Cardium aculeatum
 Coque de lagune colorée - Monodacna colorata
 Coque de lagune plissée - Hypanis plicatus
